--- a/hardware/V4/List of parts.xlsx
+++ b/hardware/V4/List of parts.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shurik/Dropbox/Robotics/github/povstaff/hardware/V4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kirillov\Dropbox\Robotics\github\povstaff\hardware\V4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8725EF0B-3FC1-2948-A55B-4D349D4A9072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{E7415961-2B7C-AD44-93E7-93BCAA7FF9E7}"/>
+    <workbookView xWindow="384" yWindow="504" windowWidth="28044" windowHeight="16944"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="65">
   <si>
     <t>Name</t>
   </si>
@@ -47,9 +46,6 @@
     <t>Price per kit</t>
   </si>
   <si>
-    <t>#ordered</t>
-  </si>
-  <si>
     <t>Vendor</t>
   </si>
   <si>
@@ -158,9 +154,6 @@
     <t>20 cm</t>
   </si>
   <si>
-    <t>10m</t>
-  </si>
-  <si>
     <t>https://www.aliexpress.us/item/2255800087895459.html</t>
   </si>
   <si>
@@ -173,9 +166,6 @@
     <t>2-pin 24 AWG wire</t>
   </si>
   <si>
-    <t>60 cm</t>
-  </si>
-  <si>
     <t>LED</t>
   </si>
   <si>
@@ -188,9 +178,6 @@
     <t>https://www.amazon.com/gp/product/B0951ZLSJL</t>
   </si>
   <si>
-    <t>Foam tube</t>
-  </si>
-  <si>
     <t>Foam tubing, 28mm ID, 38mm OD</t>
   </si>
   <si>
@@ -237,12 +224,18 @@
   </si>
   <si>
     <t>https://www.aliexpress.us/item/2251832709911024.html</t>
+  </si>
+  <si>
+    <t>End protection</t>
+  </si>
+  <si>
+    <t>55 cm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -327,11 +320,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -648,23 +641,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6AF4A05-AA94-AA49-A342-E857FEC1F60B}">
-  <dimension ref="A1:H30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C7:C12"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.33203125" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="6"/>
-    <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="59.83203125" customWidth="1"/>
-    <col min="8" max="8" width="25.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.296875" customWidth="1"/>
+    <col min="4" max="4" width="10.796875" style="6"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="59.796875" customWidth="1"/>
+    <col min="7" max="7" width="25.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -681,14 +674,11 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
@@ -696,86 +686,73 @@
       <c r="D2" s="5">
         <v>11.25</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="7" t="s">
+    </row>
+    <row r="3" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="5">
         <v>4</v>
       </c>
-      <c r="E3" s="3">
-        <v>15</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9"/>
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="5">
         <v>1</v>
       </c>
-      <c r="E4" s="3">
-        <v>30</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>
       <c r="B5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="3">
-        <v>30</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9"/>
       <c r="B6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="3">
-        <v>30</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
@@ -783,16 +760,15 @@
       <c r="D7" s="5">
         <v>1.4</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C8" s="3">
         <v>2</v>
@@ -800,16 +776,15 @@
       <c r="D8" s="5">
         <v>2.8</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
       <c r="B9" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="3">
         <v>1</v>
@@ -817,17 +792,16 @@
       <c r="D9" s="5">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="10"/>
-    </row>
-    <row r="10" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9"/>
       <c r="B10" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
@@ -835,17 +809,16 @@
       <c r="D10" s="5">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="10"/>
-    </row>
-    <row r="11" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
       <c r="B11" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -853,19 +826,18 @@
       <c r="D11" s="5">
         <v>2.4</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
       <c r="B12" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -873,32 +845,30 @@
       <c r="D12" s="5">
         <v>2.4</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="9"/>
-    </row>
-    <row r="13" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
       <c r="B13" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="5"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3" t="s">
+      <c r="E13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" ht="31" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
-        <v>23</v>
-      </c>
       <c r="B14" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C14" s="3">
         <v>2</v>
@@ -906,18 +876,17 @@
       <c r="D14" s="5">
         <v>1.3</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C15" s="3">
         <v>2</v>
@@ -925,18 +894,17 @@
       <c r="D15" s="5">
         <v>1.8</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C16" s="3">
         <v>2</v>
@@ -944,18 +912,17 @@
       <c r="D16" s="5">
         <v>1</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" s="3">
         <v>1</v>
@@ -963,75 +930,67 @@
       <c r="D17" s="5">
         <v>0.92</v>
       </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3" t="s">
+      <c r="E17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="3">
-        <v>1</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="5">
         <v>0.3</v>
       </c>
-      <c r="E19" s="3">
-        <v>10</v>
-      </c>
-      <c r="F19" s="3" t="s">
+      <c r="E19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:6" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="5">
         <v>1</v>
       </c>
-      <c r="E20" s="3">
-        <v>20</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="E20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
+      <c r="B21" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="C21" s="3">
         <v>2</v>
@@ -1039,73 +998,63 @@
       <c r="D21" s="5">
         <v>0.9</v>
       </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3" t="s">
+      <c r="E21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" t="s">
         <v>36</v>
       </c>
-      <c r="G21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
       <c r="B23" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G23" s="11"/>
-    </row>
-    <row r="24" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="11"/>
-    </row>
-    <row r="25" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="F24" s="10"/>
+    </row>
+    <row r="25" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C25" s="3">
         <v>2</v>
@@ -1113,66 +1062,62 @@
       <c r="D25" s="5">
         <v>40</v>
       </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>50</v>
+      <c r="E25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D26" s="5">
         <v>1.3</v>
       </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G26" s="7" t="s">
+      <c r="E26" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="9"/>
+      <c r="B27" s="3" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="51" x14ac:dyDescent="0.2">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="C27" s="3" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="D27" s="5">
         <v>1</v>
       </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E27" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="5"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-    </row>
-    <row r="29" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1182,40 +1127,39 @@
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="5"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="G22:G24"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="A14:A20"/>
+  <mergeCells count="8">
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A7:A13"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="F22:F24"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="A14:A20"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{E69F97CC-6B25-C442-8778-2EB5AFE822EF}"/>
-    <hyperlink ref="G17" r:id="rId2" xr:uid="{D12BA9AA-9568-EB49-918B-30FF8AF25989}"/>
-    <hyperlink ref="G18" r:id="rId3" xr:uid="{BB1BE337-6D15-7047-950F-18CBF8A4C5CF}"/>
-    <hyperlink ref="G25" r:id="rId4" xr:uid="{8450BBF6-1286-3E44-90E9-1A696D39524A}"/>
-    <hyperlink ref="G19" r:id="rId5" xr:uid="{10DB0DE2-6883-A44C-B285-8316D013F45C}"/>
-    <hyperlink ref="G20" r:id="rId6" xr:uid="{2B45D895-DB06-F24D-A579-DC8D80D216EE}"/>
-    <hyperlink ref="G22" r:id="rId7" xr:uid="{E654687E-ECEF-1241-BF50-3A9F5A38F786}"/>
-    <hyperlink ref="G22:G24" r:id="rId8" display="https://www.aliexpress.us/item/2255800087895459.html" xr:uid="{83ECCC80-D793-F34F-AAE3-46FC22B2E14E}"/>
-    <hyperlink ref="G26" r:id="rId9" xr:uid="{034F3ADB-FD6D-EA46-A1B6-8049A2EEAACF}"/>
-    <hyperlink ref="G27" r:id="rId10" xr:uid="{AE53BC49-892F-5D40-96ED-282971237E76}"/>
-    <hyperlink ref="G15" r:id="rId11" xr:uid="{8284DCAF-152D-B44D-ABA8-3A420E67F3D8}"/>
-    <hyperlink ref="G14" r:id="rId12" xr:uid="{4FC3926A-506F-EF43-AFD8-C838A080A7EC}"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F17" r:id="rId2"/>
+    <hyperlink ref="F18" r:id="rId3"/>
+    <hyperlink ref="F25" r:id="rId4"/>
+    <hyperlink ref="F19" r:id="rId5"/>
+    <hyperlink ref="F20" r:id="rId6"/>
+    <hyperlink ref="F22" r:id="rId7"/>
+    <hyperlink ref="F22:F24" r:id="rId8" display="https://www.aliexpress.us/item/2255800087895459.html"/>
+    <hyperlink ref="F26" r:id="rId9"/>
+    <hyperlink ref="F27" r:id="rId10"/>
+    <hyperlink ref="F15" r:id="rId11"/>
+    <hyperlink ref="F14" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/hardware/V4/List of parts.xlsx
+++ b/hardware/V4/List of parts.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="66">
   <si>
     <t>Name</t>
   </si>
@@ -151,18 +151,12 @@
     <t>4-pin 22 AWG wire</t>
   </si>
   <si>
-    <t>20 cm</t>
-  </si>
-  <si>
     <t>https://www.aliexpress.us/item/2255800087895459.html</t>
   </si>
   <si>
     <t>2-pin 20 AWG wire</t>
   </si>
   <si>
-    <t>60cm</t>
-  </si>
-  <si>
     <t>2-pin 24 AWG wire</t>
   </si>
   <si>
@@ -193,9 +187,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Printed in SLS (Nylon)</t>
-  </si>
-  <si>
     <t>battery midspacer</t>
   </si>
   <si>
@@ -230,6 +221,18 @@
   </si>
   <si>
     <t>55 cm</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.us/item/3256805036306271.html</t>
+  </si>
+  <si>
+    <t>55cm</t>
+  </si>
+  <si>
+    <t>22 cm</t>
+  </si>
+  <si>
+    <t>Printed in black resin</t>
   </si>
 </sst>
 </file>
@@ -293,7 +296,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -325,6 +328,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -645,7 +651,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -752,7 +758,7 @@
         <v>14</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
@@ -768,7 +774,7 @@
     <row r="8" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9"/>
       <c r="B8" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C8" s="3">
         <v>2</v>
@@ -831,7 +837,7 @@
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="9" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -868,7 +874,7 @@
         <v>22</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C14" s="3">
         <v>2</v>
@@ -877,16 +883,16 @@
         <v>1.3</v>
       </c>
       <c r="E14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
       <c r="B15" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C15" s="3">
         <v>2</v>
@@ -895,16 +901,16 @@
         <v>1.8</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
       <c r="B16" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C16" s="3">
         <v>2</v>
@@ -916,10 +922,10 @@
         <v>29</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
       <c r="B17" s="3" t="s">
         <v>23</v>
@@ -937,7 +943,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
       <c r="B18" s="3" t="s">
         <v>26</v>
@@ -953,7 +959,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
       <c r="B19" s="3" t="s">
         <v>28</v>
@@ -969,7 +975,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
       <c r="B20" s="3" t="s">
         <v>31</v>
@@ -985,7 +991,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>33</v>
       </c>
@@ -1005,29 +1011,29 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
       <c r="B22" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9"/>
       <c r="B23" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="3" t="s">
@@ -1035,13 +1041,13 @@
       </c>
       <c r="F23" s="10"/>
     </row>
-    <row r="24" spans="1:6" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
       <c r="B24" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="3" t="s">
@@ -1049,12 +1055,12 @@
       </c>
       <c r="F24" s="10"/>
     </row>
-    <row r="25" spans="1:6" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C25" s="3">
         <v>2</v>
@@ -1066,18 +1072,21 @@
         <v>29</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="C26" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D26" s="5">
         <v>1.3</v>
@@ -1086,16 +1095,16 @@
         <v>35</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
       <c r="B27" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D27" s="5">
         <v>1</v>
@@ -1104,10 +1113,10 @@
         <v>35</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1115,9 +1124,9 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1128,7 +1137,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1138,14 +1147,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="A14:A20"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A7:A13"/>
     <mergeCell ref="A26:A27"/>
     <mergeCell ref="A21:A24"/>
     <mergeCell ref="F22:F24"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="A14:A20"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1"/>
@@ -1160,7 +1169,9 @@
     <hyperlink ref="F27" r:id="rId10"/>
     <hyperlink ref="F15" r:id="rId11"/>
     <hyperlink ref="F14" r:id="rId12"/>
+    <hyperlink ref="G25" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId14"/>
 </worksheet>
 </file>
--- a/hardware/V4/List of parts.xlsx
+++ b/hardware/V4/List of parts.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kirillov\Dropbox\Robotics\github\povstaff\hardware\V4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shurik/Dropbox/Robotics/github/povstaff/hardware/V4/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73B3BE7-05C8-CE43-AA3D-FBE62260CD6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="504" windowWidth="28044" windowHeight="16944"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="64">
   <si>
     <t>Name</t>
   </si>
@@ -115,12 +116,6 @@
     <t>https://www.mouser.com/ProductDetail/612-RRA1534400</t>
   </si>
   <si>
-    <t>PCB test point</t>
-  </si>
-  <si>
-    <t>https://www.adafruit.com/product/3825</t>
-  </si>
-  <si>
     <t>Charge connector</t>
   </si>
   <si>
@@ -175,9 +170,6 @@
     <t>Foam tubing, 28mm ID, 38mm OD</t>
   </si>
   <si>
-    <t>2x5cm</t>
-  </si>
-  <si>
     <t>Heat Shrink Wrap Tubing, 40mm diameter, black</t>
   </si>
   <si>
@@ -226,19 +218,22 @@
     <t>https://www.aliexpress.us/item/3256805036306271.html</t>
   </si>
   <si>
-    <t>55cm</t>
-  </si>
-  <si>
     <t>22 cm</t>
   </si>
   <si>
     <t>Printed in black resin</t>
+  </si>
+  <si>
+    <t>55.5cm</t>
+  </si>
+  <si>
+    <t>2x6cm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -320,17 +315,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -647,23 +642,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.296875" customWidth="1"/>
-    <col min="4" max="4" width="10.796875" style="6"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="6"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="59.796875" customWidth="1"/>
-    <col min="7" max="7" width="25.296875" customWidth="1"/>
+    <col min="6" max="6" width="59.83203125" customWidth="1"/>
+    <col min="7" max="7" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -681,7 +676,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>5</v>
@@ -699,8 +694,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -715,8 +710,8 @@
       </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
+    <row r="4" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="10"/>
       <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
@@ -729,8 +724,8 @@
       </c>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
+    <row r="5" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="10"/>
       <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
@@ -741,8 +736,8 @@
       </c>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
+    <row r="6" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="10"/>
       <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
@@ -753,12 +748,12 @@
       </c>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
@@ -771,10 +766,10 @@
       </c>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
+    <row r="8" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="10"/>
       <c r="B8" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C8" s="3">
         <v>2</v>
@@ -787,8 +782,8 @@
       </c>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
+    <row r="9" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="10"/>
       <c r="B9" s="3" t="s">
         <v>16</v>
       </c>
@@ -804,8 +799,8 @@
       <c r="F9" s="3"/>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
+    <row r="10" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="10"/>
       <c r="B10" s="3" t="s">
         <v>17</v>
       </c>
@@ -821,8 +816,8 @@
       <c r="F10" s="3"/>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
+    <row r="11" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="10"/>
       <c r="B11" s="3" t="s">
         <v>18</v>
       </c>
@@ -836,12 +831,12 @@
         <v>15</v>
       </c>
       <c r="F11" s="3"/>
-      <c r="G11" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
+      <c r="G11" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="10"/>
       <c r="B12" s="3" t="s">
         <v>19</v>
       </c>
@@ -855,10 +850,10 @@
         <v>15</v>
       </c>
       <c r="F12" s="3"/>
-      <c r="G12" s="9"/>
-    </row>
-    <row r="13" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9"/>
+      <c r="G12" s="10"/>
+    </row>
+    <row r="13" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="10"/>
       <c r="B13" s="3" t="s">
         <v>20</v>
       </c>
@@ -869,12 +864,12 @@
       </c>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:7" ht="31.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
+    <row r="14" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C14" s="3">
         <v>2</v>
@@ -883,16 +878,16 @@
         <v>1.3</v>
       </c>
       <c r="E14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
+    </row>
+    <row r="15" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="10"/>
       <c r="B15" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C15" s="3">
         <v>2</v>
@@ -901,16 +896,16 @@
         <v>1.8</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="10"/>
       <c r="B16" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C16" s="3">
         <v>2</v>
@@ -919,14 +914,14 @@
         <v>1</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="10"/>
       <c r="B17" s="3" t="s">
         <v>23</v>
       </c>
@@ -943,235 +938,218 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
+    <row r="18" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="10"/>
       <c r="B18" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="3">
-        <v>1</v>
-      </c>
-      <c r="D18" s="5"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="5">
+        <v>0.3</v>
+      </c>
       <c r="E18" s="3" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="10"/>
       <c r="B19" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="5">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="9"/>
+    <row r="20" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="B20" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="C20" s="3">
+        <v>2</v>
+      </c>
       <c r="D20" s="5">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
         <v>33</v>
       </c>
+      <c r="F20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="10"/>
       <c r="B21" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="3">
-        <v>2</v>
-      </c>
-      <c r="D21" s="5">
-        <v>0.9</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="5"/>
       <c r="E21" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="9"/>
+    <row r="22" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="10"/>
       <c r="B22" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F22" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="12"/>
+    </row>
+    <row r="23" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="10"/>
+      <c r="B23" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="9"/>
-      <c r="B23" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="C23" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" s="10"/>
-    </row>
-    <row r="24" spans="1:7" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="9"/>
+        <v>27</v>
+      </c>
+      <c r="F23" s="12"/>
+    </row>
+    <row r="24" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="B24" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="5"/>
+      <c r="C24" s="3">
+        <v>2</v>
+      </c>
+      <c r="D24" s="5">
+        <v>40</v>
+      </c>
       <c r="E24" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24" s="10"/>
-    </row>
-    <row r="25" spans="1:7" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>41</v>
       </c>
+      <c r="G24" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A25" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="B25" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="3">
-        <v>2</v>
-      </c>
-      <c r="D25" s="5">
-        <v>40</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A26" s="9" t="s">
-        <v>60</v>
-      </c>
+    </row>
+    <row r="26" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A26" s="10"/>
       <c r="B26" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" s="5">
+        <v>1</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D26" s="5">
-        <v>1.3</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="9"/>
-      <c r="B27" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" s="3" t="s">
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="5">
-        <v>1</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="5"/>
+      <c r="D28" s="5">
+        <f>SUM(D2:D26)</f>
+        <v>79.169999999999987</v>
+      </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>49</v>
-      </c>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="5">
-        <f>SUM(D2:D27)</f>
-        <v>79.169999999999987</v>
-      </c>
+      <c r="D29" s="5"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-    </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="F21:F23"/>
     <mergeCell ref="G11:G12"/>
     <mergeCell ref="G9:G10"/>
-    <mergeCell ref="A14:A20"/>
+    <mergeCell ref="A14:A19"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A7:A13"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="F22:F24"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="F17" r:id="rId2"/>
-    <hyperlink ref="F18" r:id="rId3"/>
-    <hyperlink ref="F25" r:id="rId4"/>
-    <hyperlink ref="F19" r:id="rId5"/>
-    <hyperlink ref="F20" r:id="rId6"/>
-    <hyperlink ref="F22" r:id="rId7"/>
-    <hyperlink ref="F22:F24" r:id="rId8" display="https://www.aliexpress.us/item/2255800087895459.html"/>
-    <hyperlink ref="F26" r:id="rId9"/>
-    <hyperlink ref="F27" r:id="rId10"/>
-    <hyperlink ref="F15" r:id="rId11"/>
-    <hyperlink ref="F14" r:id="rId12"/>
-    <hyperlink ref="G25" r:id="rId13"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F17" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F24" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F18" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F19" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F21" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="F21:F23" r:id="rId7" display="https://www.aliexpress.us/item/2255800087895459.html" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="F25" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F26" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="F15" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="F14" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="G24" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId14"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId13"/>
 </worksheet>
 </file>
--- a/hardware/V4/List of parts.xlsx
+++ b/hardware/V4/List of parts.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shurik/Dropbox/Robotics/github/povstaff/hardware/V4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73B3BE7-05C8-CE43-AA3D-FBE62260CD6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{353D9780-41CB-D942-9A03-384B4A685337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="67">
   <si>
     <t>Name</t>
   </si>
@@ -228,6 +228,15 @@
   </si>
   <si>
     <t>2x6cm</t>
+  </si>
+  <si>
+    <t>Tennis Overgrip tape</t>
+  </si>
+  <si>
+    <t>1 pc</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/product/B001OTC4K0/</t>
   </si>
 </sst>
 </file>
@@ -321,11 +330,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -643,10 +652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -797,7 +806,7 @@
         <v>15</v>
       </c>
       <c r="F9" s="3"/>
-      <c r="G9" s="11"/>
+      <c r="G9" s="12"/>
     </row>
     <row r="10" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
@@ -814,7 +823,7 @@
         <v>15</v>
       </c>
       <c r="F10" s="3"/>
-      <c r="G10" s="11"/>
+      <c r="G10" s="12"/>
     </row>
     <row r="11" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
@@ -1002,7 +1011,7 @@
       <c r="E21" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="11" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1018,7 +1027,7 @@
       <c r="E22" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="12"/>
+      <c r="F22" s="11"/>
     </row>
     <row r="23" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10"/>
@@ -1032,7 +1041,7 @@
       <c r="E23" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F23" s="12"/>
+      <c r="F23" s="11"/>
     </row>
     <row r="24" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
@@ -1045,7 +1054,7 @@
         <v>2</v>
       </c>
       <c r="D24" s="5">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>27</v>
@@ -1095,45 +1104,63 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>46</v>
-      </c>
+    <row r="27" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A27" s="10"/>
+      <c r="B27" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="5">
+        <v>2</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="5">
-        <f>SUM(D2:D26)</f>
-        <v>79.169999999999987</v>
-      </c>
+      <c r="D28" s="5"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="3"/>
+    <row r="29" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="5"/>
+      <c r="D29" s="5">
+        <f>SUM(D2:D27)</f>
+        <v>75.169999999999987</v>
+      </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A13"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="F21:F23"/>
     <mergeCell ref="G11:G12"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="A14:A19"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/hardware/V4/List of parts.xlsx
+++ b/hardware/V4/List of parts.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shurik/Dropbox/Robotics/github/povstaff/hardware/V4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{353D9780-41CB-D942-9A03-384B4A685337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D0493C1-1B8C-FB4B-B9A1-BC706B1EAACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -212,9 +212,6 @@
     <t>End protection</t>
   </si>
   <si>
-    <t>55 cm</t>
-  </si>
-  <si>
     <t>https://www.aliexpress.us/item/3256805036306271.html</t>
   </si>
   <si>
@@ -227,9 +224,6 @@
     <t>55.5cm</t>
   </si>
   <si>
-    <t>2x6cm</t>
-  </si>
-  <si>
     <t>Tennis Overgrip tape</t>
   </si>
   <si>
@@ -237,6 +231,12 @@
   </si>
   <si>
     <t>https://www.amazon.com/gp/product/B001OTC4K0/</t>
+  </si>
+  <si>
+    <t>2x5.5cm</t>
+  </si>
+  <si>
+    <t>55.5 cm</t>
   </si>
 </sst>
 </file>
@@ -654,8 +654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -841,7 +841,7 @@
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
@@ -1005,7 +1005,7 @@
         <v>35</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="3" t="s">
@@ -1021,7 +1021,7 @@
         <v>37</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="3" t="s">
@@ -1035,7 +1035,7 @@
         <v>38</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="3" t="s">
@@ -1063,7 +1063,7 @@
         <v>41</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -1092,7 +1092,7 @@
         <v>44</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D26" s="5">
         <v>1</v>
@@ -1107,10 +1107,10 @@
     <row r="27" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="10"/>
       <c r="B27" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D27" s="5">
         <v>2</v>
@@ -1119,7 +1119,7 @@
         <v>33</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -1153,14 +1153,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="A14:A19"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A7:A13"/>
     <mergeCell ref="A25:A27"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="F21:F23"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="A14:A19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/hardware/V4/List of parts.xlsx
+++ b/hardware/V4/List of parts.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shurik/Dropbox/Robotics/github/povstaff/hardware/V4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D0493C1-1B8C-FB4B-B9A1-BC706B1EAACD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB60269-7FA1-DC4B-BB7F-D98F4443336B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,15 +53,9 @@
     <t>URL</t>
   </si>
   <si>
-    <t>QT Py ESP32-S2</t>
-  </si>
-  <si>
     <t>Adafruit</t>
   </si>
   <si>
-    <t>https://www.adafruit.com/product/5325</t>
-  </si>
-  <si>
     <t>Electronics</t>
   </si>
   <si>
@@ -237,6 +231,12 @@
   </si>
   <si>
     <t>55.5 cm</t>
+  </si>
+  <si>
+    <t>QT Py ESP32-S3</t>
+  </si>
+  <si>
+    <t>https://www.adafruit.com/product/5426</t>
   </si>
 </sst>
 </file>
@@ -330,11 +330,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -356,9 +356,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -396,7 +396,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -502,7 +502,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -644,7 +644,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -654,8 +654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -688,7 +688,7 @@
     <row r="2" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
@@ -697,72 +697,72 @@
         <v>11.25</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="5">
         <v>4</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10"/>
       <c r="B4" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="5">
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="5"/>
       <c r="E5" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10"/>
       <c r="B6" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="5"/>
       <c r="E6" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C7" s="3">
         <v>1</v>
@@ -771,14 +771,14 @@
         <v>1.4</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C8" s="3">
         <v>2</v>
@@ -787,14 +787,14 @@
         <v>2.8</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
       <c r="B9" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C9" s="3">
         <v>1</v>
@@ -803,15 +803,15 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F9" s="3"/>
-      <c r="G9" s="12"/>
+      <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
       <c r="B10" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C10" s="3">
         <v>1</v>
@@ -820,15 +820,15 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F10" s="3"/>
-      <c r="G10" s="12"/>
+      <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="10"/>
       <c r="B11" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -837,17 +837,17 @@
         <v>2.4</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="10"/>
       <c r="B12" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -856,7 +856,7 @@
         <v>2.4</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="10"/>
@@ -864,21 +864,21 @@
     <row r="13" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
       <c r="B13" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="5"/>
       <c r="E13" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C14" s="3">
         <v>2</v>
@@ -887,16 +887,16 @@
         <v>1.3</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10"/>
       <c r="B15" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C15" s="3">
         <v>2</v>
@@ -905,16 +905,16 @@
         <v>1.8</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10"/>
       <c r="B16" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C16" s="3">
         <v>2</v>
@@ -923,16 +923,16 @@
         <v>1</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
       <c r="B17" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C17" s="3">
         <v>1</v>
@@ -941,50 +941,50 @@
         <v>0.92</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10"/>
       <c r="B18" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="5">
         <v>0.3</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10"/>
       <c r="B19" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="5">
         <v>1</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C20" s="3">
         <v>2</v>
@@ -993,62 +993,62 @@
         <v>0.9</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10"/>
       <c r="B21" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>36</v>
+        <v>25</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
       <c r="B22" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" s="11"/>
+        <v>25</v>
+      </c>
+      <c r="F22" s="12"/>
     </row>
     <row r="23" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10"/>
       <c r="B23" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F23" s="11"/>
+        <v>25</v>
+      </c>
+      <c r="F23" s="12"/>
     </row>
     <row r="24" spans="1:7" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C24" s="3">
         <v>2</v>
@@ -1057,69 +1057,69 @@
         <v>34</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D25" s="5">
         <v>1.3</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A26" s="10"/>
       <c r="B26" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D26" s="5">
         <v>1</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="10"/>
       <c r="B27" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D27" s="5">
         <v>2</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -1132,7 +1132,7 @@
     </row>
     <row r="29" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1153,14 +1153,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="F21:F23"/>
     <mergeCell ref="G11:G12"/>
     <mergeCell ref="G9:G10"/>
     <mergeCell ref="A14:A19"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A7:A13"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="F21:F23"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
